--- a/input.xlsx
+++ b/input.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -422,166 +422,174 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="str">
-        <v>姓名</v>
+        <v>东京吃货</v>
       </c>
       <c r="B1" s="3" t="str">
-        <v>性别</v>
+        <v>null</v>
       </c>
       <c r="C1" s="3" t="str">
-        <v>年级</v>
+        <v>null</v>
       </c>
       <c r="D1" s="3" t="str">
-        <v>单位</v>
+        <v>null</v>
       </c>
       <c r="E1" s="3" t="str">
-        <v>政治面貌</v>
-      </c>
-      <c r="F1" s="3" t="str">
-        <v>籍贯</v>
+        <v>海贼王</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="3" t="str">
-        <v>zhangsan</v>
+        <v>东京吃货</v>
       </c>
       <c r="B2" s="3" t="str">
-        <v>man1</v>
+        <v>null</v>
       </c>
       <c r="C2" s="3" t="str">
-        <v>21</v>
+        <v>null</v>
       </c>
       <c r="D2" s="3" t="str">
-        <v>home1</v>
+        <v>null</v>
       </c>
       <c r="E2" s="3" t="str">
-        <v>people</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <v>china</v>
+        <v>海贼王</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3" t="str">
-        <v>zhangsan1</v>
+        <v>东京吃货</v>
       </c>
       <c r="B3" s="3" t="str">
-        <v>man2</v>
+        <v>null</v>
       </c>
       <c r="C3" s="3" t="str">
-        <v>22</v>
+        <v>null</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>home2</v>
+        <v>null</v>
       </c>
       <c r="E3" s="3" t="str">
-        <v>people</v>
-      </c>
-      <c r="F3" s="3" t="str">
-        <v>china</v>
+        <v>海贼王</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3" t="str">
-        <v>zhangsan2</v>
+        <v>东京吃货</v>
       </c>
       <c r="B4" s="3" t="str">
-        <v>man3</v>
+        <v>null</v>
       </c>
       <c r="C4" s="3" t="str">
-        <v>23</v>
+        <v>null</v>
       </c>
       <c r="D4" s="3" t="str">
-        <v>home3</v>
+        <v>null</v>
       </c>
       <c r="E4" s="3" t="str">
-        <v>people</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <v>china</v>
+        <v>海贼王</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3" t="str">
-        <v>zhangsan3</v>
+        <v>东京吃货</v>
       </c>
       <c r="B5" s="3" t="str">
-        <v>man4</v>
+        <v>null</v>
       </c>
       <c r="C5" s="3" t="str">
-        <v>24</v>
+        <v>null</v>
       </c>
       <c r="D5" s="3" t="str">
-        <v>home4</v>
+        <v>null</v>
       </c>
       <c r="E5" s="3" t="str">
-        <v>people</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <v>china</v>
+        <v>海贼王</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3" t="str">
-        <v>zhangsan4</v>
+        <v>东京吃货</v>
       </c>
       <c r="B6" s="3" t="str">
-        <v>man5</v>
+        <v>null</v>
       </c>
       <c r="C6" s="3" t="str">
-        <v>25</v>
+        <v>null</v>
       </c>
       <c r="D6" s="3" t="str">
-        <v>home5</v>
+        <v>null</v>
       </c>
       <c r="E6" s="3" t="str">
-        <v>people</v>
-      </c>
-      <c r="F6" s="3" t="str">
-        <v>china</v>
+        <v>海贼王</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3" t="str">
-        <v>zhangsan5</v>
+        <v>东京吃货</v>
       </c>
       <c r="B7" s="3" t="str">
-        <v>man6</v>
+        <v>null</v>
       </c>
       <c r="C7" s="3" t="str">
-        <v>26</v>
+        <v>null</v>
       </c>
       <c r="D7" s="3" t="str">
-        <v>home6</v>
+        <v>null</v>
       </c>
       <c r="E7" s="3" t="str">
-        <v>people</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <v>china</v>
+        <v>海贼王</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="3" t="str">
-        <v>zhangsan6</v>
+        <v>东京吃货</v>
       </c>
       <c r="B8" s="3" t="str">
-        <v>man7</v>
+        <v>null</v>
       </c>
       <c r="C8" s="3" t="str">
-        <v>27</v>
+        <v>null</v>
       </c>
       <c r="D8" s="3" t="str">
-        <v>home7</v>
+        <v>null</v>
       </c>
       <c r="E8" s="3" t="str">
-        <v>people</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <v>china</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1"/>
-    <row r="10" ht="20" customHeight="1"/>
+        <v>海贼王</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3" t="str">
+        <v>东京吃货</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <v>null</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <v>null</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <v>null</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <v>海贼王</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3" t="str">
+        <v>东京吃货</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <v>null</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <v>null</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <v>null</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <v>海贼王</v>
+      </c>
+    </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1"/>
@@ -595,9 +603,9 @@
     <mergeCell ref="A1:D7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A10:D13"/>
-    <mergeCell ref="E1:G5"/>
-    <mergeCell ref="E6:G13"/>
-    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="E1:H5"/>
+    <mergeCell ref="E6:H13"/>
+    <mergeCell ref="E14:H15"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -23,7 +23,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <color rgb="ff280c"/>
+      <color rgb="000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,7 +62,7 @@
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -420,12 +420,13 @@
     <col min="18" max="18" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="str">
-        <v>东京吃货</v>
+    <row r="1" ht="20" customHeight="1" xml:space="preserve">
+      <c r="A1" s="3" t="str" xml:space="preserve">
+        <v xml:space="preserve">ab
+cde</v>
       </c>
       <c r="B1" s="3" t="str">
-        <v>null</v>
+        <v>ddd</v>
       </c>
       <c r="C1" s="3" t="str">
         <v>null</v>
@@ -433,16 +434,17 @@
       <c r="D1" s="3" t="str">
         <v>null</v>
       </c>
-      <c r="E1" s="3" t="str">
-        <v>海贼王</v>
+      <c r="E1" s="3" t="str" xml:space="preserve">
+        <v xml:space="preserve">dddddddd
+ddddd</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="3" t="str">
-        <v>东京吃货</v>
+        <v>abcde</v>
       </c>
       <c r="B2" s="3" t="str">
-        <v>null</v>
+        <v>ddd</v>
       </c>
       <c r="C2" s="3" t="str">
         <v>null</v>
@@ -451,15 +453,15 @@
         <v>null</v>
       </c>
       <c r="E2" s="3" t="str">
-        <v>海贼王</v>
+        <v>ddddddddddddd</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3" t="str">
-        <v>东京吃货</v>
+        <v>abcde</v>
       </c>
       <c r="B3" s="3" t="str">
-        <v>null</v>
+        <v>ddd</v>
       </c>
       <c r="C3" s="3" t="str">
         <v>null</v>
@@ -468,15 +470,15 @@
         <v>null</v>
       </c>
       <c r="E3" s="3" t="str">
-        <v>海贼王</v>
+        <v>ddddddddddddd</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3" t="str">
-        <v>东京吃货</v>
+        <v>abcde</v>
       </c>
       <c r="B4" s="3" t="str">
-        <v>null</v>
+        <v>ddd</v>
       </c>
       <c r="C4" s="3" t="str">
         <v>null</v>
@@ -485,15 +487,15 @@
         <v>null</v>
       </c>
       <c r="E4" s="3" t="str">
-        <v>海贼王</v>
+        <v>ddddddddddddd</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3" t="str">
-        <v>东京吃货</v>
+        <v>abcde</v>
       </c>
       <c r="B5" s="3" t="str">
-        <v>null</v>
+        <v>ddd</v>
       </c>
       <c r="C5" s="3" t="str">
         <v>null</v>
@@ -502,15 +504,15 @@
         <v>null</v>
       </c>
       <c r="E5" s="3" t="str">
-        <v>海贼王</v>
+        <v>ddddddddddddd</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3" t="str">
-        <v>东京吃货</v>
+        <v>abcde</v>
       </c>
       <c r="B6" s="3" t="str">
-        <v>null</v>
+        <v>ddd</v>
       </c>
       <c r="C6" s="3" t="str">
         <v>null</v>
@@ -519,85 +521,9 @@
         <v>null</v>
       </c>
       <c r="E6" s="3" t="str">
-        <v>海贼王</v>
+        <v>ddddddddddddd</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="3" t="str">
-        <v>东京吃货</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <v>海贼王</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="3" t="str">
-        <v>东京吃货</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <v>海贼王</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="3" t="str">
-        <v>东京吃货</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <v>海贼王</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="3" t="str">
-        <v>东京吃货</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <v>海贼王</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="20" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1"/>
-    <row r="14" ht="20" customHeight="1"/>
-    <row r="15" ht="20" customHeight="1"/>
-    <row r="16" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D7"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -38,7 +38,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -61,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -4310,7 +4317,7 @@
         <v/>
       </c>
       <c r="B101" s="3" t="str">
-        <v/>
+        <v>21时</v>
       </c>
       <c r="C101" s="3" t="str" xml:space="preserve">
         <v xml:space="preserve">刀剑神域
@@ -59121,7 +59128,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
     <mergeCell ref="C101:C145"/>
     <mergeCell ref="C146:C180"/>
     <mergeCell ref="C181:C215"/>
@@ -59132,6 +59139,7 @@
     <mergeCell ref="C376:C410"/>
     <mergeCell ref="C411:C445"/>
     <mergeCell ref="C446:C480"/>
+    <mergeCell ref="B101:B641"/>
     <mergeCell ref="C481:C640"/>
     <mergeCell ref="D121:D165"/>
     <mergeCell ref="D166:D200"/>
